--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9694DE6-7516-4ACA-870C-E769AD6B6269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734AC219-2054-4C0C-B1FA-2635646752F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t>Graphics</t>
   </si>
@@ -263,6 +262,9 @@
   </si>
   <si>
     <t>where to put commas, ands, and bullets vs numbers for lists in definitions, itemize vs enumerate</t>
+  </si>
+  <si>
+    <t>MASKIN NOTES</t>
   </si>
 </sst>
 </file>
@@ -666,7 +668,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,6 +981,9 @@
       </c>
       <c r="H13" t="s">
         <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734AC219-2054-4C0C-B1FA-2635646752F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5555F19C-EBFD-4C9F-9DA4-AF808C9BA93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
   <si>
     <t>Graphics</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>MASKIN NOTES</t>
+  </si>
+  <si>
+    <t>GLICK NOTES</t>
+  </si>
+  <si>
+    <t>PAPER NOTES</t>
+  </si>
+  <si>
+    <t>references with volumes, capitatlization, etc?</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -338,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -351,6 +366,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +684,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,6 +971,9 @@
       <c r="H12" t="s">
         <v>12</v>
       </c>
+      <c r="I12" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
@@ -974,7 +993,9 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>58</v>
@@ -982,7 +1003,7 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="12" t="s">
         <v>75</v>
       </c>
       <c r="J13" t="s">
@@ -1011,6 +1032,9 @@
       </c>
       <c r="H14" t="s">
         <v>12</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5555F19C-EBFD-4C9F-9DA4-AF808C9BA93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2493E6-2977-4F48-AB46-823A63340B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
   <si>
     <t>Graphics</t>
   </si>
@@ -255,9 +255,6 @@
     <t>cite theorems in the name</t>
   </si>
   <si>
-    <t>appendix?</t>
-  </si>
-  <si>
     <t>Make figures higher res / same font</t>
   </si>
   <si>
@@ -267,13 +264,25 @@
     <t>MASKIN NOTES</t>
   </si>
   <si>
-    <t>GLICK NOTES</t>
-  </si>
-  <si>
     <t>PAPER NOTES</t>
   </si>
   <si>
     <t>references with volumes, capitatlization, etc?</t>
+  </si>
+  <si>
+    <t>GLICK NOTES [[INDEX]]</t>
+  </si>
+  <si>
+    <t>appendix?/index</t>
+  </si>
+  <si>
+    <t>$$$$ for signatures</t>
+  </si>
+  <si>
+    <t>can figures have the same name</t>
+  </si>
+  <si>
+    <t>capitalize in figure names?</t>
   </si>
 </sst>
 </file>
@@ -353,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -367,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +694,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -994,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -1004,7 +1014,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1034,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -1142,7 +1152,9 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1184,6 +1196,9 @@
       <c r="B21" t="s">
         <v>12</v>
       </c>
+      <c r="G21" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
@@ -1202,6 +1217,9 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1531,7 +1549,7 @@
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -1566,7 +1584,7 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2493E6-2977-4F48-AB46-823A63340B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDEC7AE-A89A-4B93-B223-32C414ECDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
   <si>
     <t>Graphics</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>do figure titles use the word "the"</t>
-  </si>
-  <si>
-    <t>references should have a page number in TOC</t>
   </si>
   <si>
     <t>higher quality images (export vs screenshot)</t>
@@ -694,7 +691,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +710,7 @@
       <c r="G3" s="4"/>
       <c r="I3" s="6"/>
       <c r="K3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -741,7 +738,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="O4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -780,7 +777,7 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -790,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
@@ -812,7 +809,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -822,14 +819,14 @@
         <v>21</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -850,7 +847,7 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="4"/>
@@ -887,7 +884,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -937,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>12</v>
@@ -966,23 +963,23 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>71</v>
+      <c r="E12" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -997,14 +994,14 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -1014,7 +1011,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1029,22 +1026,24 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
+      <c r="C14" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>59</v>
+      <c r="G14" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -1059,8 +1058,8 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>63</v>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
@@ -1068,16 +1067,16 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1092,14 +1091,14 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -1112,14 +1111,14 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>68</v>
+      <c r="G17" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -1132,8 +1131,8 @@
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>70</v>
+      <c r="G18" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -1152,8 +1151,8 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>79</v>
+      <c r="G19" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1175,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1196,9 +1195,6 @@
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H21" t="s">
         <v>12</v>
       </c>
@@ -1217,9 +1213,6 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>12</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1549,7 +1542,7 @@
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -1584,7 +1577,7 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDEC7AE-A89A-4B93-B223-32C414ECDB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976320B3-0149-4422-B7E5-6B559001467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
   <si>
     <t>Graphics</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>appendix?/index</t>
-  </si>
-  <si>
-    <t>$$$$ for signatures</t>
   </si>
   <si>
     <t>can figures have the same name</t>
@@ -691,7 +688,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +774,7 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -884,7 +881,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -968,7 +965,7 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="13" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="4"/>
@@ -994,7 +991,7 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1026,7 +1023,7 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1132,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -1151,8 +1148,8 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>77</v>
+      <c r="G19" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1172,9 +1169,6 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>12</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976320B3-0149-4422-B7E5-6B559001467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4EBD8-4CCF-42A3-BFC7-6D160304422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
   <si>
     <t>Graphics</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>capitalize in figure names?</t>
+  </si>
+  <si>
+    <t>refernces page tab/cap authers</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -370,7 +373,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +690,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +967,7 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="4"/>
@@ -1061,7 +1063,9 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
         <v>66</v>
@@ -1128,7 +1132,7 @@
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H18" t="s">

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4EBD8-4CCF-42A3-BFC7-6D160304422B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E87E6E-BB91-4B30-B3F4-FB27713E2501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
   <si>
     <t>Graphics</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>refernces page tab/cap authers</t>
+  </si>
+  <si>
+    <t>chapter headings should have TOC</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,6 +1195,9 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E87E6E-BB91-4B30-B3F4-FB27713E2501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4C12DE-BEC9-4EE6-BD26-9687F6135B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="89">
   <si>
     <t>Graphics</t>
   </si>
@@ -252,12 +252,6 @@
     <t>cite theorems in the name</t>
   </si>
   <si>
-    <t>Make figures higher res / same font</t>
-  </si>
-  <si>
-    <t>where to put commas, ands, and bullets vs numbers for lists in definitions, itemize vs enumerate</t>
-  </si>
-  <si>
     <t>MASKIN NOTES</t>
   </si>
   <si>
@@ -283,6 +277,33 @@
   </si>
   <si>
     <t>chapter headings should have TOC</t>
+  </si>
+  <si>
+    <t>Add dashed lines where appropiate</t>
+  </si>
+  <si>
+    <t>Wordchoice</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>lists</t>
+  </si>
+  <si>
+    <t>adjective definitions</t>
+  </si>
+  <si>
+    <t>glossery thing</t>
+  </si>
+  <si>
+    <t>p+r</t>
+  </si>
+  <si>
+    <t>cite the sports leagues (and taladega nights, P-I naming, nba playing why, zurish swiss, others) when I use them</t>
+  </si>
+  <si>
+    <t>zurich switzerland</t>
   </si>
 </sst>
 </file>
@@ -362,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -376,6 +397,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +716,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,8 +872,8 @@
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
+      <c r="E8" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -881,12 +904,12 @@
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>50</v>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -912,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
@@ -942,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -971,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
@@ -981,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1003,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
@@ -1013,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1034,8 +1057,8 @@
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>48</v>
+      <c r="E14" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
@@ -1045,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -1060,14 +1083,14 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>80</v>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
@@ -1093,7 +1116,9 @@
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
         <v>67</v>
@@ -1136,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -1156,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1197,7 +1222,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -1530,62 +1555,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7103E2D-1F50-4993-9D81-162BA3E4B70C}">
-  <dimension ref="C3:G18"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="79.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4C12DE-BEC9-4EE6-BD26-9687F6135B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A203E-8A2C-4B3C-A288-B547B64E08C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
   <si>
     <t>Graphics</t>
   </si>
@@ -279,31 +279,22 @@
     <t>chapter headings should have TOC</t>
   </si>
   <si>
-    <t>Add dashed lines where appropiate</t>
-  </si>
-  <si>
-    <t>Wordchoice</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
-    <t>lists</t>
-  </si>
-  <si>
-    <t>adjective definitions</t>
-  </si>
-  <si>
     <t>glossery thing</t>
   </si>
   <si>
-    <t>p+r</t>
-  </si>
-  <si>
-    <t>cite the sports leagues (and taladega nights, P-I naming, nba playing why, zurish swiss, others) when I use them</t>
-  </si>
-  <si>
     <t>zurich switzerland</t>
+  </si>
+  <si>
+    <t>swiss, p + r, intro</t>
+  </si>
+  <si>
+    <t>sort thru sheet1</t>
+  </si>
+  <si>
+    <t>cite the sports leagues (and taladega nights, P-I naming, nba playing why, zurish swiss, others) when I use them and also cite SST inventor</t>
   </si>
 </sst>
 </file>
@@ -383,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -398,7 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8268EF-D185-4740-9164-A0FF02A9F021}">
   <dimension ref="B3:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -873,7 +863,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -1555,149 +1545,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7103E2D-1F50-4993-9D81-162BA3E4B70C}">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B4:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A203E-8A2C-4B3C-A288-B547B64E08C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1648E8-FDB6-4C55-8B60-2728012531FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
   <si>
     <t>Graphics</t>
   </si>
@@ -294,7 +294,13 @@
     <t>sort thru sheet1</t>
   </si>
   <si>
-    <t>cite the sports leagues (and taladega nights, P-I naming, nba playing why, zurish swiss, others) when I use them and also cite SST inventor</t>
+    <t>but randomization figures in the proof</t>
+  </si>
+  <si>
+    <t>(nee orderedness/edwardsian/(reseed [disproof more and also c.e better]) comments)</t>
+  </si>
+  <si>
+    <t>cite the sports leagues (and taladega nights, mtg swiss P-I naming, nba playing why, nfl expansion, zurish swiss, others) when I use them and also cite SST inventor</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -388,7 +394,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1545,25 +1550,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7103E2D-1F50-4993-9D81-162BA3E4B70C}">
-  <dimension ref="B4:B21"/>
+  <dimension ref="B5:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-    </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
-        <v>85</v>
+      <c r="B6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -1572,59 +1574,49 @@
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
-        <v>12</v>
+      <c r="B12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1648E8-FDB6-4C55-8B60-2728012531FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E731BF-725A-4968-A04C-DBF61EF6A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
   <si>
     <t>Graphics</t>
   </si>
@@ -300,7 +300,10 @@
     <t>(nee orderedness/edwardsian/(reseed [disproof more and also c.e better]) comments)</t>
   </si>
   <si>
-    <t>cite the sports leagues (and taladega nights, mtg swiss P-I naming, nba playing why, nfl expansion, zurish swiss, others) when I use them and also cite SST inventor</t>
+    <t>think about dashed line</t>
+  </si>
+  <si>
+    <t>cite the sports leagues (and taladega nights, mtg swiss P-I naming, nba playing why, nfl expansion, zurish swiss, others) when I use them and also cite SST inventor and also double sigs</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
   <dimension ref="B3:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,7 +1556,7 @@
   <dimension ref="B5:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,7 +1568,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
@@ -1600,7 +1603,7 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E731BF-725A-4968-A04C-DBF61EF6A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AE42D6-B14E-4A36-823D-E6DDCE9E76D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="100">
   <si>
     <t>Graphics</t>
   </si>
@@ -304,6 +305,39 @@
   </si>
   <si>
     <t>cite the sports leagues (and taladega nights, mtg swiss P-I naming, nba playing why, nfl expansion, zurish swiss, others) when I use them and also cite SST inventor and also double sigs</t>
+  </si>
+  <si>
+    <t>confirm refs</t>
+  </si>
+  <si>
+    <t>new p/r/s/fc</t>
+  </si>
+  <si>
+    <t>ne coments about 2.3-6</t>
+  </si>
+  <si>
+    <t>glossery</t>
+  </si>
+  <si>
+    <t>intro</t>
+  </si>
+  <si>
+    <t>ne coments about 2.3-6 (explain more on counterexamples, more emphasis that I disproved, randomness figures in proof, better containment)</t>
+  </si>
+  <si>
+    <t>\theo (cite in title, induction standardize, ending statements)</t>
+  </si>
+  <si>
+    <t>Introduction (+future work? Aknowledgments?)</t>
+  </si>
+  <si>
+    <t>Glossery (defs and tournaments [confirm refs])</t>
+  </si>
+  <si>
+    <t>new p/r/s/fc (eff notes)</t>
+  </si>
+  <si>
+    <t>\fig (dashed line, the word the, line up pages)</t>
   </si>
 </sst>
 </file>
@@ -383,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -397,6 +431,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8268EF-D185-4740-9164-A0FF02A9F021}">
   <dimension ref="B3:O69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7103E2D-1F50-4993-9D81-162BA3E4B70C}">
-  <dimension ref="B5:B16"/>
+  <dimension ref="B5:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B5:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,23 +1642,202 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D136485-76FF-4D95-9CBC-0A11B64571DB}">
+  <dimension ref="B4:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.44140625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AE42D6-B14E-4A36-823D-E6DDCE9E76D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A531C-0161-4D87-8B49-E42DB031F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -337,7 +337,7 @@
     <t>new p/r/s/fc (eff notes)</t>
   </si>
   <si>
-    <t>\fig (dashed line, the word the, line up pages)</t>
+    <t>\fig (dashed line (get rid of its horrible!), the word the, line up pages)</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1678,7 @@
   <dimension ref="B4:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,17 +1716,17 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A531C-0161-4D87-8B49-E42DB031F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB78E6F-D0D3-4E56-B34C-B21B9A90B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
   <si>
     <t>Graphics</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>\fig (dashed line (get rid of its horrible!), the word the, line up pages)</t>
+  </si>
+  <si>
+    <t>last comments</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1681,7 @@
   <dimension ref="B4:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,6 +1732,11 @@
         <v>95</v>
       </c>
     </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
     </row>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB78E6F-D0D3-4E56-B34C-B21B9A90B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63603CBD-3E6C-439A-A9A0-DCF60286BD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="130">
   <si>
     <t>Graphics</t>
   </si>
@@ -322,6 +323,12 @@
     <t>intro</t>
   </si>
   <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Glossery (defs and tournaments)</t>
+  </si>
+  <si>
     <t>ne coments about 2.3-6 (explain more on counterexamples, more emphasis that I disproved, randomness figures in proof, better containment)</t>
   </si>
   <si>
@@ -331,9 +338,6 @@
     <t>Introduction (+future work? Aknowledgments?)</t>
   </si>
   <si>
-    <t>Glossery (defs and tournaments [confirm refs])</t>
-  </si>
-  <si>
     <t>new p/r/s/fc (eff notes)</t>
   </si>
   <si>
@@ -341,6 +345,90 @@
   </si>
   <si>
     <t>last comments</t>
+  </si>
+  <si>
+    <t>confirm refs, gloss, intro numbers</t>
+  </si>
+  <si>
+    <t>Update Questions</t>
+  </si>
+  <si>
+    <t>Define the word bracket</t>
+  </si>
+  <si>
+    <t>explain gameplay function vs matchup table better</t>
+  </si>
+  <si>
+    <t>add in history of the field</t>
+  </si>
+  <si>
+    <t>conclusion/future work</t>
+  </si>
+  <si>
+    <t>Brackets</t>
+  </si>
+  <si>
+    <t>Elaborate more on counterexamples</t>
+  </si>
+  <si>
+    <t>More emphasis that I was the one to disprove Hwang</t>
+  </si>
+  <si>
+    <t>Think about containment and exciting definitions</t>
+  </si>
+  <si>
+    <t>Move randomness figures into proof</t>
+  </si>
+  <si>
+    <t>ask nee for more notes</t>
+  </si>
+  <si>
+    <t>Multibrackets</t>
+  </si>
+  <si>
+    <t>Finish flowcharts section</t>
+  </si>
+  <si>
+    <t>Extrapolate to swiss and to efficient</t>
+  </si>
+  <si>
+    <t>Have dad read</t>
+  </si>
+  <si>
+    <t>Postmatter</t>
+  </si>
+  <si>
+    <t>Glossery for chapters 1 and 3</t>
+  </si>
+  <si>
+    <t>Format glossery</t>
+  </si>
+  <si>
+    <t>Figures dash line and the word the</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Numbers in intro</t>
+  </si>
+  <si>
+    <t>glossary</t>
+  </si>
+  <si>
+    <t>plagarism</t>
+  </si>
+  <si>
+    <t>lineup pages</t>
+  </si>
+  <si>
+    <t>last %s</t>
+  </si>
+  <si>
+    <t>refs (how often and bib)</t>
+  </si>
+  <si>
+    <t>proofs and defs with person/year</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D136485-76FF-4D95-9CBC-0A11B64571DB}">
   <dimension ref="B4:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,42 +1787,47 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -1844,6 +1937,125 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
+  <dimension ref="B5:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63603CBD-3E6C-439A-A9A0-DCF60286BD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B33AD6-8AF1-4D08-9EC6-14411D62355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>Graphics</t>
   </si>
@@ -380,21 +380,12 @@
     <t>Move randomness figures into proof</t>
   </si>
   <si>
-    <t>ask nee for more notes</t>
-  </si>
-  <si>
     <t>Multibrackets</t>
   </si>
   <si>
     <t>Finish flowcharts section</t>
   </si>
   <si>
-    <t>Extrapolate to swiss and to efficient</t>
-  </si>
-  <si>
-    <t>Have dad read</t>
-  </si>
-  <si>
     <t>Postmatter</t>
   </si>
   <si>
@@ -429,6 +420,21 @@
   </si>
   <si>
     <t>proofs and defs with person/year</t>
+  </si>
+  <si>
+    <t>exp to swiss</t>
+  </si>
+  <si>
+    <t>exp to eff</t>
+  </si>
+  <si>
+    <t>make dad edits</t>
+  </si>
+  <si>
+    <t>exp to non</t>
+  </si>
+  <si>
+    <t>new word for exciting?</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -508,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -524,6 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1945,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
-  <dimension ref="B5:J11"/>
+  <dimension ref="B5:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1967,13 +1980,13 @@
         <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -1983,14 +1996,14 @@
       <c r="D6" t="s">
         <v>109</v>
       </c>
-      <c r="F6" t="s">
-        <v>115</v>
+      <c r="F6" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2001,13 +2014,13 @@
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -2018,13 +2031,13 @@
         <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2034,11 +2047,14 @@
       <c r="D9" t="s">
         <v>112</v>
       </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2046,18 +2062,20 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" t="s">
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B33AD6-8AF1-4D08-9EC6-14411D62355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D063D-F63F-4E70-9F4D-5F643C71C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -395,18 +395,12 @@
     <t>Format glossery</t>
   </si>
   <si>
-    <t>Figures dash line and the word the</t>
-  </si>
-  <si>
     <t>Polish</t>
   </si>
   <si>
     <t>Numbers in intro</t>
   </si>
   <si>
-    <t>glossary</t>
-  </si>
-  <si>
     <t>plagarism</t>
   </si>
   <si>
@@ -416,25 +410,31 @@
     <t>last %s</t>
   </si>
   <si>
-    <t>refs (how often and bib)</t>
-  </si>
-  <si>
     <t>proofs and defs with person/year</t>
   </si>
   <si>
     <t>exp to swiss</t>
   </si>
   <si>
-    <t>exp to eff</t>
-  </si>
-  <si>
     <t>make dad edits</t>
   </si>
   <si>
-    <t>exp to non</t>
-  </si>
-  <si>
     <t>new word for exciting?</t>
+  </si>
+  <si>
+    <t>confirm glossary</t>
+  </si>
+  <si>
+    <t>Figures dash line/bold and the word the</t>
+  </si>
+  <si>
+    <t>exp to eff /non</t>
+  </si>
+  <si>
+    <t>make dad swiss edits</t>
+  </si>
+  <si>
+    <t>think about printing</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1961,7 @@
   <dimension ref="B5:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,6 +1970,7 @@
     <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -1986,7 +1987,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2003,7 +2004,7 @@
         <v>116</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2013,48 +2014,48 @@
       <c r="D7" t="s">
         <v>110</v>
       </c>
-      <c r="F7" t="s">
-        <v>129</v>
+      <c r="F7" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="H7" t="s">
         <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>111</v>
       </c>
-      <c r="F8" t="s">
-        <v>127</v>
+      <c r="F8" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
         <v>112</v>
       </c>
       <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
         <v>128</v>
       </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2062,16 +2063,16 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
         <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916D063D-F63F-4E70-9F4D-5F643C71C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C46F84-7195-484B-846C-6CAD46E7FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
   <si>
     <t>Graphics</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Think about containment and exciting definitions</t>
   </si>
   <si>
-    <t>Move randomness figures into proof</t>
-  </si>
-  <si>
     <t>Multibrackets</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>Postmatter</t>
   </si>
   <si>
-    <t>Glossery for chapters 1 and 3</t>
-  </si>
-  <si>
     <t>Format glossery</t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>last %s</t>
   </si>
   <si>
-    <t>proofs and defs with person/year</t>
-  </si>
-  <si>
     <t>exp to swiss</t>
   </si>
   <si>
@@ -435,6 +426,18 @@
   </si>
   <si>
     <t>think about printing</t>
+  </si>
+  <si>
+    <t>proofs and defs with person/year + conjs + corrs + get rid of talking about it hten</t>
+  </si>
+  <si>
+    <t>Move randomness + E.T. figures into proof</t>
+  </si>
+  <si>
+    <t>determine who defined and proved simple things</t>
+  </si>
+  <si>
+    <t>Glossery for chapters 1 and 3 and nameed theos</t>
   </si>
 </sst>
 </file>
@@ -1958,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
-  <dimension ref="B5:J10"/>
+  <dimension ref="B5:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1981,13 +1984,13 @@
         <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -1998,13 +2001,13 @@
         <v>109</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2015,13 +2018,13 @@
         <v>110</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -2032,13 +2035,13 @@
         <v>111</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2046,16 +2049,16 @@
         <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
@@ -2063,16 +2066,21 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C46F84-7195-484B-846C-6CAD46E7FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA7B494-8C75-4CA1-8AFC-7FCA76009CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
   <si>
     <t>Graphics</t>
   </si>
@@ -323,6 +324,9 @@
     <t>intro</t>
   </si>
   <si>
+    <t>Glossery</t>
+  </si>
+  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -362,33 +366,6 @@
     <t>add in history of the field</t>
   </si>
   <si>
-    <t>conclusion/future work</t>
-  </si>
-  <si>
-    <t>Brackets</t>
-  </si>
-  <si>
-    <t>Elaborate more on counterexamples</t>
-  </si>
-  <si>
-    <t>More emphasis that I was the one to disprove Hwang</t>
-  </si>
-  <si>
-    <t>Think about containment and exciting definitions</t>
-  </si>
-  <si>
-    <t>Multibrackets</t>
-  </si>
-  <si>
-    <t>Finish flowcharts section</t>
-  </si>
-  <si>
-    <t>Postmatter</t>
-  </si>
-  <si>
-    <t>Format glossery</t>
-  </si>
-  <si>
     <t>Polish</t>
   </si>
   <si>
@@ -404,40 +381,34 @@
     <t>last %s</t>
   </si>
   <si>
-    <t>exp to swiss</t>
-  </si>
-  <si>
-    <t>make dad edits</t>
-  </si>
-  <si>
-    <t>new word for exciting?</t>
-  </si>
-  <si>
-    <t>confirm glossary</t>
-  </si>
-  <si>
-    <t>Figures dash line/bold and the word the</t>
-  </si>
-  <si>
-    <t>exp to eff /non</t>
-  </si>
-  <si>
-    <t>make dad swiss edits</t>
-  </si>
-  <si>
-    <t>think about printing</t>
-  </si>
-  <si>
-    <t>proofs and defs with person/year + conjs + corrs + get rid of talking about it hten</t>
-  </si>
-  <si>
-    <t>Move randomness + E.T. figures into proof</t>
-  </si>
-  <si>
     <t>determine who defined and proved simple things</t>
   </si>
   <si>
-    <t>Glossery for chapters 1 and 3 and nameed theos</t>
+    <t>Glossery newlines</t>
+  </si>
+  <si>
+    <t>Glossery for ch3</t>
+  </si>
+  <si>
+    <t>Glossery for formats</t>
+  </si>
+  <si>
+    <t>Cleanup figures (dash, bold, the)</t>
+  </si>
+  <si>
+    <t>make dad editis</t>
+  </si>
+  <si>
+    <t>word for exciting</t>
+  </si>
+  <si>
+    <t>think about printing/tunring it in</t>
+  </si>
+  <si>
+    <t>confirm glossary/refs</t>
+  </si>
+  <si>
+    <t>newline for name overflow</t>
   </si>
 </sst>
 </file>
@@ -461,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,12 +475,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -523,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -537,9 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1782,7 +1744,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D136485-76FF-4D95-9CBC-0A11B64571DB}">
-  <dimension ref="B4:B53"/>
+  <dimension ref="B5:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -1790,12 +1752,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-    </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1803,156 +1762,48 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>99</v>
+      <c r="B7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>96</v>
+      <c r="B8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>100</v>
+      <c r="B12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>97</v>
+      <c r="B13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>101</v>
+      <c r="B14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="14"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="14"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="14"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="14"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="14"/>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1961,126 +1812,126 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
-  <dimension ref="B5:J11"/>
+  <dimension ref="B5:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA7B494-8C75-4CA1-8AFC-7FCA76009CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EF302-047E-407C-92FA-47A01B80592C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
   <si>
     <t>Graphics</t>
   </si>
@@ -381,9 +381,6 @@
     <t>last %s</t>
   </si>
   <si>
-    <t>determine who defined and proved simple things</t>
-  </si>
-  <si>
     <t>Glossery newlines</t>
   </si>
   <si>
@@ -396,19 +393,19 @@
     <t>Cleanup figures (dash, bold, the)</t>
   </si>
   <si>
-    <t>make dad editis</t>
-  </si>
-  <si>
-    <t>word for exciting</t>
-  </si>
-  <si>
     <t>think about printing/tunring it in</t>
   </si>
   <si>
     <t>confirm glossary/refs</t>
   </si>
   <si>
-    <t>newline for name overflow</t>
+    <t>Unatributed</t>
+  </si>
+  <si>
+    <t>any %s</t>
+  </si>
+  <si>
+    <t>swiss graphs with subscripts</t>
   </si>
 </sst>
 </file>
@@ -1812,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
-  <dimension ref="B5:B29"/>
+  <dimension ref="B5:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,22 +1853,22 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -1881,7 +1878,7 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
@@ -1891,47 +1888,42 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73EF302-047E-407C-92FA-47A01B80592C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A39CC-AEAA-4F3A-B89B-69269A66FD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
   <si>
     <t>Graphics</t>
   </si>
@@ -324,12 +324,6 @@
     <t>intro</t>
   </si>
   <si>
-    <t>Glossery</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
     <t>Glossery (defs and tournaments)</t>
   </si>
   <si>
@@ -354,18 +348,6 @@
     <t>confirm refs, gloss, intro numbers</t>
   </si>
   <si>
-    <t>Update Questions</t>
-  </si>
-  <si>
-    <t>Define the word bracket</t>
-  </si>
-  <si>
-    <t>explain gameplay function vs matchup table better</t>
-  </si>
-  <si>
-    <t>add in history of the field</t>
-  </si>
-  <si>
     <t>Polish</t>
   </si>
   <si>
@@ -381,31 +363,34 @@
     <t>last %s</t>
   </si>
   <si>
-    <t>Glossery newlines</t>
-  </si>
-  <si>
-    <t>Glossery for ch3</t>
-  </si>
-  <si>
     <t>Glossery for formats</t>
   </si>
   <si>
-    <t>Cleanup figures (dash, bold, the)</t>
-  </si>
-  <si>
     <t>think about printing/tunring it in</t>
   </si>
   <si>
     <t>confirm glossary/refs</t>
   </si>
   <si>
-    <t>Unatributed</t>
-  </si>
-  <si>
-    <t>any %s</t>
-  </si>
-  <si>
-    <t>swiss graphs with subscripts</t>
+    <t>Mom introduction</t>
+  </si>
+  <si>
+    <t>gameplay function vs matchup table</t>
+  </si>
+  <si>
+    <t>subscript on swiss</t>
+  </si>
+  <si>
+    <t>proper -&gt; weak proper</t>
+  </si>
+  <si>
+    <t>trivial vs competitive</t>
+  </si>
+  <si>
+    <t>last read</t>
+  </si>
+  <si>
+    <t>make containment better</t>
   </si>
 </sst>
 </file>
@@ -1759,22 +1744,22 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
@@ -1784,22 +1769,22 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1809,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
-  <dimension ref="B5:B28"/>
+  <dimension ref="B5:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1822,108 +1807,86 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>104</v>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>94</v>
+      <c r="B15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>108</v>
+      <c r="B20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A39CC-AEAA-4F3A-B89B-69269A66FD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9B6C0-9099-47B8-B032-BBAA29456AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="116">
   <si>
     <t>Graphics</t>
   </si>
@@ -357,9 +357,6 @@
     <t>plagarism</t>
   </si>
   <si>
-    <t>lineup pages</t>
-  </si>
-  <si>
     <t>last %s</t>
   </si>
   <si>
@@ -372,12 +369,6 @@
     <t>confirm glossary/refs</t>
   </si>
   <si>
-    <t>Mom introduction</t>
-  </si>
-  <si>
-    <t>gameplay function vs matchup table</t>
-  </si>
-  <si>
     <t>subscript on swiss</t>
   </si>
   <si>
@@ -391,6 +382,12 @@
   </si>
   <si>
     <t>make containment better</t>
+  </si>
+  <si>
+    <t>future work</t>
+  </si>
+  <si>
+    <t>lineup pages/size images</t>
   </si>
 </sst>
 </file>
@@ -1794,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
-  <dimension ref="B5:B22"/>
+  <dimension ref="B5:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,17 +1813,17 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
@@ -1836,57 +1833,52 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/thesis-tex/excels/todo.xlsx
+++ b/thesis-tex/excels/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leofr\Documents\LeoWork\School\04College\17Senior\thesis\thesis-tex\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9B6C0-9099-47B8-B032-BBAA29456AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A525BAF-C088-495A-81D2-284777EBEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{5E98CAFA-3C68-43D4-B8FA-5BDF0312E4FD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t>Graphics</t>
   </si>
@@ -351,43 +351,16 @@
     <t>Polish</t>
   </si>
   <si>
-    <t>Numbers in intro</t>
-  </si>
-  <si>
     <t>plagarism</t>
   </si>
   <si>
-    <t>last %s</t>
-  </si>
-  <si>
-    <t>Glossery for formats</t>
-  </si>
-  <si>
     <t>think about printing/tunring it in</t>
   </si>
   <si>
-    <t>confirm glossary/refs</t>
-  </si>
-  <si>
-    <t>subscript on swiss</t>
-  </si>
-  <si>
-    <t>proper -&gt; weak proper</t>
-  </si>
-  <si>
-    <t>trivial vs competitive</t>
-  </si>
-  <si>
-    <t>last read</t>
-  </si>
-  <si>
-    <t>make containment better</t>
-  </si>
-  <si>
     <t>future work</t>
   </si>
   <si>
-    <t>lineup pages/size images</t>
+    <t>count gloss/refs/intro numbers</t>
   </si>
 </sst>
 </file>
@@ -1791,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5A7EC-BEB1-4B41-B6F6-3FA523223DFE}">
-  <dimension ref="B5:B23"/>
+  <dimension ref="B4:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,82 +1776,29 @@
     <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
